--- a/output/1Y_P28_1VAL-D.xlsx
+++ b/output/1Y_P28_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G2" s="1">
-        <v>727.5055</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1289</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7456</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1289</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E3" s="1">
+        <v>727.5055</v>
+      </c>
       <c r="F3" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G3" s="1">
-        <v>1415.6184</v>
-      </c>
       <c r="H3" s="1">
-        <v>20465.7365</v>
+        <v>10517.6202</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1281</v>
+        <v>10517.6202</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.7456</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.75</v>
       </c>
-      <c r="L3" s="1">
-        <v>491.0662</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9508.933800000001</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>491.0662</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20956.8027</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0506</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E4" s="1">
+        <v>1415.6184</v>
+      </c>
       <c r="F4" s="1">
-        <v>715.0454999999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2130.6639</v>
+        <v>711.5513</v>
       </c>
       <c r="H4" s="1">
-        <v>29788.5988</v>
+        <v>19791.619</v>
       </c>
       <c r="I4" s="1">
-        <v>30049.1066</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1032</v>
+        <v>19791.619</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.1281</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>441.9596</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30230.5584</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0235</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E5" s="1">
+        <v>2127.1697</v>
+      </c>
       <c r="F5" s="1">
-        <v>762.0291</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2892.693</v>
+        <v>758.3053</v>
       </c>
       <c r="H5" s="1">
-        <v>37948.9504</v>
+        <v>27906.1266</v>
       </c>
       <c r="I5" s="1">
-        <v>40098.2132</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.8619</v>
+        <v>27906.1266</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1032</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>392.853</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38341.8034</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0469</v>
+        <v>-0.0633</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E6" s="1">
+        <v>2885.475</v>
+      </c>
       <c r="F6" s="1">
-        <v>769.8223</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3662.5153</v>
+        <v>766.0605</v>
       </c>
       <c r="H6" s="1">
-        <v>47561.7904</v>
+        <v>37471.0675</v>
       </c>
       <c r="I6" s="1">
-        <v>50147.3199</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.692</v>
+        <v>37471.0675</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8625</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>343.7464</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>47905.5367</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.008999999999999999</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E7" s="1">
+        <v>3651.5355</v>
+      </c>
       <c r="F7" s="1">
-        <v>725.9184</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4388.4338</v>
+        <v>722.3711</v>
       </c>
       <c r="H7" s="1">
-        <v>60435.3156</v>
+        <v>50287.1211</v>
       </c>
       <c r="I7" s="1">
-        <v>60196.4265</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7171</v>
+        <v>50287.1211</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6929</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>294.6397</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60729.9553</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0488</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E8" s="1">
+        <v>4373.9066</v>
+      </c>
       <c r="F8" s="1">
-        <v>697.4381</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5085.8719</v>
+        <v>694.03</v>
       </c>
       <c r="H8" s="1">
-        <v>72900.37880000001</v>
+        <v>62695.14</v>
       </c>
       <c r="I8" s="1">
-        <v>70245.5331</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.8119</v>
+        <v>62695.14</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.7177</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>245.5331</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>73145.91190000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0342</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E9" s="1">
+        <v>5067.9366</v>
+      </c>
       <c r="F9" s="1">
-        <v>672.9102</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5758.7821</v>
+        <v>669.6219</v>
       </c>
       <c r="H9" s="1">
-        <v>85554.1943</v>
+        <v>75290.78599999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80294.6397</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.943</v>
+        <v>75290.78599999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8123</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>196.4265</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85750.6208</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0313</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E10" s="1">
+        <v>5737.5585</v>
+      </c>
       <c r="F10" s="1">
-        <v>630.7776</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6389.5597</v>
+        <v>627.6952</v>
       </c>
       <c r="H10" s="1">
-        <v>101266.214</v>
+        <v>90932.8434</v>
       </c>
       <c r="I10" s="1">
-        <v>90343.7464</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>14.1393</v>
+        <v>90932.8434</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9432</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>147.3199</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101413.5339</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0591</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E11" s="1">
+        <v>6365.2537</v>
+      </c>
       <c r="F11" s="1">
-        <v>590.405</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6979.9647</v>
+        <v>587.5199</v>
       </c>
       <c r="H11" s="1">
-        <v>118187.5537</v>
+        <v>107779.0211</v>
       </c>
       <c r="I11" s="1">
-        <v>100392.853</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>14.383</v>
+        <v>107779.0211</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.1393</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>98.2132</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>118285.7669</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0617</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E12" s="1">
+        <v>6952.7736</v>
+      </c>
       <c r="F12" s="1">
-        <v>575.5238000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7555.4885</v>
+        <v>572.7114</v>
       </c>
       <c r="H12" s="1">
-        <v>131240.3464</v>
+        <v>120771.0674</v>
       </c>
       <c r="I12" s="1">
-        <v>110441.9596</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>14.6174</v>
+        <v>120771.0674</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.3827</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>49.1066</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>131289.453</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0234</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.886</v>
       </c>
+      <c r="E13" s="1">
+        <v>7525.485</v>
+      </c>
       <c r="F13" s="1">
-        <v>595.1147</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8150.6032</v>
+        <v>592.2066</v>
       </c>
       <c r="H13" s="1">
-        <v>136917.9077</v>
+        <v>126416.86</v>
       </c>
       <c r="I13" s="1">
-        <v>120491.0662</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>14.7831</v>
+        <v>126416.86</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.617</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10049.1066</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>136917.9077</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0309</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.59</v>
       </c>
+      <c r="E14" s="1">
+        <v>8117.6916</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8150.6032</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7525.485</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>142049.8613</v>
       </c>
       <c r="I14" s="1">
-        <v>120491.0662</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>14.7831</v>
+        <v>142049.8613</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.5507</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>142625.7751</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>142625.7751</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>142625.7751</v>
+        <v>131686.9571</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0292</v>
+        <v>0.0413</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.7456</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>727.5055</v>
       </c>
       <c r="G2" s="1">
-        <v>727.5055</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1289</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7456</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1289</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.5325</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>727.5055</v>
       </c>
       <c r="F3" s="1">
         <v>655.8978</v>
       </c>
       <c r="G3" s="1">
-        <v>1383.4033</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10517.6202</v>
       </c>
       <c r="I3" s="1">
-        <v>19531.8345</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1187</v>
+        <v>10517.6202</v>
       </c>
       <c r="K3" s="1">
+        <v>9531.834500000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.1021</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.75</v>
       </c>
-      <c r="L3" s="1">
-        <v>491.0662</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9040.7683</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>959.2317</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20959.2317</v>
+        <v>-9531.834500000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0507</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.0538</v>
       </c>
       <c r="E4" s="1">
+        <v>1383.4033</v>
+      </c>
+      <c r="F4" s="1">
+        <v>744.8637</v>
+      </c>
+      <c r="G4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1">
-        <v>762.3813</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2145.7846</v>
-      </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19341.2233</v>
       </c>
       <c r="I4" s="1">
-        <v>30246.1888</v>
+        <v>468.1655</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0956</v>
+        <v>19809.3888</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.4571</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10714.3543</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>244.8775</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30244.8775</v>
+        <v>-10468.1655</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0231</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.1873</v>
       </c>
       <c r="E5" s="1">
+        <v>2128.267</v>
+      </c>
+      <c r="F5" s="1">
+        <v>758.3053</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>776.8745</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2922.6591</v>
-      </c>
       <c r="H5" s="1">
-        <v>38342.0729</v>
+        <v>27920.5221</v>
       </c>
       <c r="I5" s="1">
-        <v>40491.0662</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.8542</v>
+        <v>27920.5221</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.096</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10244.8775</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38342.0729</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0473</v>
+        <v>-0.0634</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.0538</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2886.5724</v>
       </c>
       <c r="F6" s="1">
         <v>766.0605</v>
       </c>
       <c r="G6" s="1">
-        <v>3688.7196</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>47902.0815</v>
+        <v>37485.3172</v>
       </c>
       <c r="I6" s="1">
-        <v>50491.0662</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.688</v>
+        <v>37485.3172</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8573</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47902.0815</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0091</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.8433</v>
       </c>
       <c r="E7" s="1">
+        <v>3652.6328</v>
+      </c>
+      <c r="F7" s="1">
+        <v>704.1911</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>668.1043</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4356.8239</v>
-      </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50302.2327</v>
       </c>
       <c r="I7" s="1">
-        <v>59739.8343</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7118</v>
+        <v>50302.2327</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49748.3282</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6199</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-9248.768</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>751.232</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60751.232</v>
+        <v>-9748.3282</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0492</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.4086</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4356.8239</v>
       </c>
       <c r="F8" s="1">
         <v>526.704</v>
       </c>
       <c r="G8" s="1">
-        <v>4883.5279</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62450.2777</v>
       </c>
       <c r="I8" s="1">
-        <v>67328.9013</v>
+        <v>251.6718</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7869</v>
+        <v>62701.9496</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57337.3952</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.1604</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7589.067</v>
       </c>
-      <c r="O8" s="1">
-        <v>3162.1649</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73162.1649</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0341</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.9338</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4883.5279</v>
       </c>
       <c r="F9" s="1">
         <v>501.393</v>
       </c>
       <c r="G9" s="1">
-        <v>5384.9209</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72551.155</v>
       </c>
       <c r="I9" s="1">
-        <v>74816.60430000001</v>
+        <v>2662.6048</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8937</v>
+        <v>75213.7597</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64825.0982</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.2742</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7487.703</v>
       </c>
-      <c r="O9" s="1">
-        <v>5674.4619</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85674.46189999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0302</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.9313</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5384.9209</v>
       </c>
       <c r="F10" s="1">
         <v>293.7783</v>
       </c>
       <c r="G10" s="1">
-        <v>5678.6992</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>85343.9955</v>
       </c>
       <c r="I10" s="1">
-        <v>79496.8749</v>
+        <v>5174.9018</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9991</v>
+        <v>90518.89720000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69505.3688</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.9074</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4680.2706</v>
       </c>
-      <c r="O10" s="1">
-        <v>10994.1913</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100994.1913</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0556</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.0207</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5678.6992</v>
       </c>
       <c r="F11" s="1">
         <v>227.1381</v>
       </c>
       <c r="G11" s="1">
-        <v>5905.8373</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>96154.00629999999</v>
       </c>
       <c r="I11" s="1">
-        <v>83362.9249</v>
+        <v>10494.6312</v>
       </c>
       <c r="J11" s="1">
-        <v>14.1153</v>
+        <v>106648.6375</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>73371.4188</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.9205</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3866.05</v>
       </c>
-      <c r="O11" s="1">
-        <v>17128.1413</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117128.1413</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0553</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.4608</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5905.8373</v>
       </c>
       <c r="F12" s="1">
         <v>426.8474</v>
       </c>
       <c r="G12" s="1">
-        <v>6332.6847</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>102585.5756</v>
       </c>
       <c r="I12" s="1">
-        <v>90816.0217</v>
+        <v>16628.5812</v>
       </c>
       <c r="J12" s="1">
-        <v>14.3408</v>
+        <v>119214.1568</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>80824.5156</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6855</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7453.0968</v>
       </c>
-      <c r="O12" s="1">
-        <v>19675.0446</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129675.0446</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.886</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6332.6847</v>
       </c>
       <c r="F13" s="1">
         <v>810.8102</v>
       </c>
       <c r="G13" s="1">
-        <v>7143.495</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>106379.6041</v>
       </c>
       <c r="I13" s="1">
-        <v>104507.3634</v>
+        <v>19175.4844</v>
       </c>
       <c r="J13" s="1">
-        <v>14.6297</v>
+        <v>125555.0885</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>94515.85739999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.9251</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13691.3417</v>
       </c>
-      <c r="O13" s="1">
-        <v>15983.7028</v>
-      </c>
-      <c r="P13" s="1">
-        <v>135983.7028</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0264</v>
+        <v>-0.0283</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.59</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7143.495</v>
       </c>
       <c r="F14" s="1">
         <v>-7143.495</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125002.5895</v>
       </c>
       <c r="I14" s="1">
-        <v>104507.3634</v>
+        <v>15484.1426</v>
       </c>
       <c r="J14" s="1">
-        <v>14.6297</v>
+        <v>140486.7322</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>94515.85739999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.231</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125002.5895</v>
       </c>
-      <c r="O14" s="1">
-        <v>140986.2923</v>
-      </c>
-      <c r="P14" s="1">
-        <v>140986.2923</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0342</v>
+        <v>0.0364</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.7456</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>727.5055</v>
       </c>
       <c r="G2" s="1">
-        <v>727.5055</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1289</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7456</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1289</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.5325</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>727.5055</v>
       </c>
       <c r="F3" s="1">
         <v>659.3563</v>
       </c>
       <c r="G3" s="1">
-        <v>1386.8618</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10517.6202</v>
       </c>
       <c r="I3" s="1">
-        <v>19582.0953</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1197</v>
+        <v>10517.6202</v>
       </c>
       <c r="K3" s="1">
+        <v>9582.095300000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.1712</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.75</v>
       </c>
-      <c r="L3" s="1">
-        <v>491.0662</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9091.029</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>908.971</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20958.971</v>
+        <v>-9582.095300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0507</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.0538</v>
       </c>
       <c r="E4" s="1">
+        <v>1386.8618</v>
+      </c>
+      <c r="F4" s="1">
+        <v>741.2874</v>
+      </c>
+      <c r="G4" s="1">
         <v>30150.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>769.6695999999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2156.5314</v>
-      </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>19389.5764</v>
       </c>
       <c r="I4" s="1">
-        <v>30398.8778</v>
+        <v>417.9047</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0962</v>
+        <v>19807.4811</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.421</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10816.7825</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>92.1884</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30242.4384</v>
+        <v>-10417.9047</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0231</v>
+        <v>-0.0346</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.1873</v>
       </c>
       <c r="E5" s="1">
+        <v>2128.1492</v>
+      </c>
+      <c r="F5" s="1">
+        <v>758.3053</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>765.296</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2921.8274</v>
-      </c>
       <c r="H5" s="1">
-        <v>38331.1621</v>
+        <v>27918.9767</v>
       </c>
       <c r="I5" s="1">
-        <v>40491.0662</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.8581</v>
+        <v>27918.9767</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.0968</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10092.1884</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38331.1621</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0475</v>
+        <v>-0.0634</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.0538</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2886.4545</v>
       </c>
       <c r="F6" s="1">
         <v>766.0605</v>
       </c>
       <c r="G6" s="1">
-        <v>3687.8879</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>47891.2811</v>
+        <v>37483.7874</v>
       </c>
       <c r="I6" s="1">
-        <v>50491.0662</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6911</v>
+        <v>37483.7874</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8578</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47891.2811</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0091</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.8433</v>
       </c>
       <c r="E7" s="1">
+        <v>3652.515</v>
+      </c>
+      <c r="F7" s="1">
+        <v>722.3711</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>723.7607</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4411.6486</v>
-      </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50300.6104</v>
       </c>
       <c r="I7" s="1">
-        <v>60510.3027</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.716</v>
+        <v>50300.6104</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6892</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10019.2365</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>-19.2365</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60735.7823</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0491</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.4086</v>
       </c>
       <c r="E8" s="1">
+        <v>4374.8861</v>
+      </c>
+      <c r="F8" s="1">
+        <v>582.5082</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>545.7457000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4957.3943</v>
-      </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62709.1801</v>
       </c>
       <c r="I8" s="1">
-        <v>68373.73390000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7923</v>
+        <v>62709.1801</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58393.1271</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.3473</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-7863.4311</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>2117.3324</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>73176.1263</v>
+        <v>-8393.1271</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0345</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.9338</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4957.3943</v>
       </c>
       <c r="F9" s="1">
         <v>522.711</v>
       </c>
       <c r="G9" s="1">
-        <v>5480.1053</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73648.5367</v>
       </c>
       <c r="I9" s="1">
-        <v>76179.79519999999</v>
+        <v>1606.8729</v>
       </c>
       <c r="J9" s="1">
-        <v>13.9012</v>
+        <v>75255.40949999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66199.1884</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.3536</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7806.0613</v>
       </c>
-      <c r="O9" s="1">
-        <v>4311.2711</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85725.35890000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0306</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.9313</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5480.1053</v>
       </c>
       <c r="F10" s="1">
         <v>313.5029</v>
       </c>
       <c r="G10" s="1">
-        <v>5793.6082</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>86852.54429999999</v>
       </c>
       <c r="I10" s="1">
-        <v>81174.3045</v>
+        <v>3800.8116</v>
       </c>
       <c r="J10" s="1">
-        <v>14.011</v>
+        <v>90653.3559</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71193.69779999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.9913</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4994.5093</v>
       </c>
-      <c r="O10" s="1">
-        <v>9316.7618</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101137.92</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0565</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.0207</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5793.6082</v>
       </c>
       <c r="F11" s="1">
         <v>246.8978</v>
       </c>
       <c r="G11" s="1">
-        <v>6040.506</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>98099.6915</v>
       </c>
       <c r="I11" s="1">
-        <v>85376.6781</v>
+        <v>8806.3022</v>
       </c>
       <c r="J11" s="1">
-        <v>14.134</v>
+        <v>106905.9937</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>75396.0714</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.0137</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4202.3737</v>
       </c>
-      <c r="O11" s="1">
-        <v>15114.3881</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117394.6522</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0563</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.4608</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6040.506</v>
       </c>
       <c r="F12" s="1">
         <v>452.8945</v>
       </c>
       <c r="G12" s="1">
-        <v>6493.4005</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>104924.7976</v>
       </c>
       <c r="I12" s="1">
-        <v>93284.5782</v>
+        <v>14603.9286</v>
       </c>
       <c r="J12" s="1">
-        <v>14.3661</v>
+        <v>119528.7262</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>83303.97139999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.7909</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7907.9</v>
       </c>
-      <c r="O12" s="1">
-        <v>17206.4881</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129998.1535</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0204</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.886</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6493.4005</v>
       </c>
       <c r="F13" s="1">
         <v>849.8518</v>
       </c>
       <c r="G13" s="1">
-        <v>7343.2523</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>109079.3883</v>
       </c>
       <c r="I13" s="1">
-        <v>107635.1756</v>
+        <v>16696.0286</v>
       </c>
       <c r="J13" s="1">
-        <v>14.6577</v>
+        <v>125775.4169</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>97654.5689</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.039</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14350.5974</v>
       </c>
-      <c r="O13" s="1">
-        <v>12855.8906</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136211.5144</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.027</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.59</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7343.2523</v>
       </c>
       <c r="F14" s="1">
         <v>-7343.2523</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128498.1033</v>
       </c>
       <c r="I14" s="1">
-        <v>107635.1756</v>
+        <v>12345.4311</v>
       </c>
       <c r="J14" s="1">
-        <v>14.6577</v>
+        <v>140843.5344</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>97654.5689</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.2985</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128498.1033</v>
       </c>
-      <c r="O14" s="1">
-        <v>141353.994</v>
-      </c>
-      <c r="P14" s="1">
-        <v>141353.994</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0332</v>
+        <v>0.0373</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.7456</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>727.5055</v>
       </c>
       <c r="G2" s="1">
-        <v>727.5055</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1289</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7456</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1289</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.5325</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>727.5055</v>
       </c>
       <c r="F3" s="1">
         <v>662.8148</v>
       </c>
       <c r="G3" s="1">
-        <v>1390.3203</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10517.6202</v>
       </c>
       <c r="I3" s="1">
-        <v>19632.3561</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1207</v>
+        <v>10517.6202</v>
       </c>
       <c r="K3" s="1">
+        <v>9632.356100000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.2403</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.75</v>
       </c>
-      <c r="L3" s="1">
-        <v>491.0662</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9141.2898</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>858.7102</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20958.7102</v>
+        <v>-9632.356100000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0507</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.0538</v>
       </c>
       <c r="E4" s="1">
+        <v>1390.3203</v>
+      </c>
+      <c r="F4" s="1">
+        <v>737.7111</v>
+      </c>
+      <c r="G4" s="1">
         <v>30301</v>
       </c>
-      <c r="F4" s="1">
-        <v>772.653</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2162.9733</v>
-      </c>
       <c r="H4" s="1">
-        <v>30240.3132</v>
+        <v>19437.9295</v>
       </c>
       <c r="I4" s="1">
-        <v>30491.0662</v>
+        <v>367.6439</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0968</v>
+        <v>19805.5734</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.3852</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10858.7102</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30240.3132</v>
+        <v>-10367.6439</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0232</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.1873</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2128.0314</v>
       </c>
       <c r="F5" s="1">
         <v>758.3053</v>
       </c>
       <c r="G5" s="1">
-        <v>2921.2786</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38323.9622</v>
+        <v>27917.4312</v>
       </c>
       <c r="I5" s="1">
-        <v>40491.0662</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.8607</v>
+        <v>27917.4312</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.0975</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38323.9622</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0476</v>
+        <v>-0.0633</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.0538</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2886.3367</v>
       </c>
       <c r="F6" s="1">
         <v>766.0605</v>
       </c>
       <c r="G6" s="1">
-        <v>3687.3391</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>47884.1541</v>
+        <v>37482.2576</v>
       </c>
       <c r="I6" s="1">
-        <v>50491.0662</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6931</v>
+        <v>37482.2576</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8584</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47884.1541</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0091</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.8433</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3652.3972</v>
       </c>
       <c r="F7" s="1">
         <v>722.3711</v>
       </c>
       <c r="G7" s="1">
-        <v>4409.7102</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60728.324</v>
+        <v>50298.9881</v>
       </c>
       <c r="I7" s="1">
-        <v>60491.0662</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7177</v>
+        <v>50298.9881</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6896</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60728.324</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0491</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.4086</v>
       </c>
       <c r="E8" s="1">
+        <v>4374.7683</v>
+      </c>
+      <c r="F8" s="1">
+        <v>657.7317</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>622.7898</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5032.5</v>
-      </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>62707.4915</v>
       </c>
       <c r="I8" s="1">
-        <v>69464.5958</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.8032</v>
+        <v>62707.4915</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59476.9931</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5955</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-8973.529500000001</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1026.4705</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>73161.8226</v>
+        <v>-9476.9931</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0344</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.9338</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5032.5</v>
       </c>
       <c r="F9" s="1">
         <v>544.71</v>
       </c>
       <c r="G9" s="1">
-        <v>5577.21</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74764.33010000001</v>
       </c>
       <c r="I9" s="1">
-        <v>77599.1863</v>
+        <v>523.0069</v>
       </c>
       <c r="J9" s="1">
-        <v>13.9136</v>
+        <v>75287.337</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67611.5837</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.435</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8134.5905</v>
       </c>
-      <c r="O9" s="1">
-        <v>2891.8799</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85748.58560000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0311</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.9313</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5577.21</v>
       </c>
       <c r="F10" s="1">
         <v>334.0175</v>
       </c>
       <c r="G10" s="1">
-        <v>5911.2276</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>88391.5289</v>
       </c>
       <c r="I10" s="1">
-        <v>82920.52</v>
+        <v>2388.4163</v>
       </c>
       <c r="J10" s="1">
-        <v>14.0276</v>
+        <v>90779.9452</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72932.9173</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.077</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5321.3337</v>
       </c>
-      <c r="O10" s="1">
-        <v>7570.5463</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101255.819</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0575</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.0207</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5911.2276</v>
       </c>
       <c r="F11" s="1">
         <v>267.5849</v>
       </c>
       <c r="G11" s="1">
-        <v>6178.8125</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>100091.27</v>
       </c>
       <c r="I11" s="1">
-        <v>87475.0031</v>
+        <v>7067.0827</v>
       </c>
       <c r="J11" s="1">
-        <v>14.1573</v>
+        <v>107158.3527</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>77487.4005</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.1085</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4554.4831</v>
       </c>
-      <c r="O11" s="1">
-        <v>13016.0631</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117638.1885</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0574</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.4608</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6178.8125</v>
       </c>
       <c r="F12" s="1">
         <v>480.1981</v>
       </c>
       <c r="G12" s="1">
-        <v>6659.0106</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107327.2095</v>
       </c>
       <c r="I12" s="1">
-        <v>95859.6462</v>
+        <v>12512.5995</v>
       </c>
       <c r="J12" s="1">
-        <v>14.3955</v>
+        <v>119839.8091</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>85872.0436</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.8978</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8384.643099999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>14631.4201</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130299.7667</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0209</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.886</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6659.0106</v>
       </c>
       <c r="F13" s="1">
         <v>890.7723999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7549.783</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>111861.3903</v>
       </c>
       <c r="I13" s="1">
-        <v>110901.2286</v>
+        <v>14127.9564</v>
       </c>
       <c r="J13" s="1">
-        <v>14.6893</v>
+        <v>125989.3467</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>100913.626</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.1544</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-15041.5824</v>
       </c>
-      <c r="O13" s="1">
-        <v>9589.837600000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136414.8678</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0277</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.59</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7549.783</v>
       </c>
       <c r="F14" s="1">
         <v>-7549.783</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132112.1432</v>
       </c>
       <c r="I14" s="1">
-        <v>110901.2286</v>
+        <v>9086.374</v>
       </c>
       <c r="J14" s="1">
-        <v>14.6893</v>
+        <v>141198.5172</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100913.626</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.3664</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>132112.1432</v>
       </c>
-      <c r="O14" s="1">
-        <v>141701.9808</v>
-      </c>
-      <c r="P14" s="1">
-        <v>141701.9808</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0322</v>
+        <v>0.0383</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.7456</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>727.5055</v>
       </c>
       <c r="G2" s="1">
-        <v>727.5055</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1289</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7456</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1289</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.5325</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>727.5055</v>
       </c>
       <c r="F3" s="1">
         <v>666.2732999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1393.7788</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10517.6202</v>
       </c>
       <c r="I3" s="1">
-        <v>19682.6168</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.1218</v>
+        <v>10517.6202</v>
       </c>
       <c r="K3" s="1">
+        <v>9682.6168</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.3093</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.75</v>
       </c>
-      <c r="L3" s="1">
-        <v>491.0662</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9191.5506</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>808.4494</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20958.4494</v>
+        <v>-9682.6168</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0506</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.0538</v>
       </c>
       <c r="E4" s="1">
+        <v>1393.7788</v>
+      </c>
+      <c r="F4" s="1">
+        <v>734.1348</v>
+      </c>
+      <c r="G4" s="1">
         <v>30452.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>769.0766</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2162.8555</v>
-      </c>
       <c r="H4" s="1">
-        <v>30238.6662</v>
+        <v>19486.2825</v>
       </c>
       <c r="I4" s="1">
-        <v>30491.0662</v>
+        <v>317.3832</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0976</v>
+        <v>19803.6657</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.3495</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10808.4494</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30238.6662</v>
+        <v>-10317.3832</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0232</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.1873</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2127.9136</v>
       </c>
       <c r="F5" s="1">
         <v>758.3053</v>
       </c>
       <c r="G5" s="1">
-        <v>2921.1608</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38322.4167</v>
+        <v>27915.8857</v>
       </c>
       <c r="I5" s="1">
-        <v>40491.0662</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.8613</v>
+        <v>27915.8857</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.0983</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38322.4167</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0476</v>
+        <v>-0.0633</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.0538</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2886.2189</v>
       </c>
       <c r="F6" s="1">
         <v>766.0605</v>
       </c>
       <c r="G6" s="1">
-        <v>3687.2213</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>47882.6243</v>
+        <v>37480.7278</v>
       </c>
       <c r="I6" s="1">
-        <v>50491.0662</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6935</v>
+        <v>37480.7278</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.859</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47882.6243</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0091</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.8433</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3652.2794</v>
       </c>
       <c r="F7" s="1">
         <v>722.3711</v>
       </c>
       <c r="G7" s="1">
-        <v>4409.5924</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>60726.7016</v>
+        <v>50297.3657</v>
       </c>
       <c r="I7" s="1">
-        <v>60491.0662</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7181</v>
+        <v>50297.3657</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6901</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60726.7016</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0491</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.4086</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4374.6505</v>
       </c>
       <c r="F8" s="1">
         <v>694.03</v>
       </c>
       <c r="G8" s="1">
-        <v>5103.6223</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73154.81230000001</v>
+        <v>62705.8029</v>
       </c>
       <c r="I8" s="1">
-        <v>70491.0662</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.812</v>
+        <v>62705.8029</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.7154</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73154.81230000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0343</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.9338</v>
       </c>
       <c r="E9" s="1">
+        <v>5068.6805</v>
+      </c>
+      <c r="F9" s="1">
+        <v>607.591</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>572.6491</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5676.2714</v>
-      </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>75301.8376</v>
       </c>
       <c r="I9" s="1">
-        <v>79042.89290000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.9251</v>
+        <v>75301.8376</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69073.6418</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.6275</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-8551.8267</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1448.1733</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85776.5644</v>
+        <v>-9073.641799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0315</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.9313</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5676.2714</v>
       </c>
       <c r="F10" s="1">
         <v>355.3474</v>
       </c>
       <c r="G10" s="1">
-        <v>6031.6188</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>89961.52280000001</v>
       </c>
       <c r="I10" s="1">
-        <v>84704.0387</v>
+        <v>926.3582</v>
       </c>
       <c r="J10" s="1">
-        <v>14.0433</v>
+        <v>90887.88099999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74734.7876</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.1662</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5661.1458</v>
       </c>
-      <c r="O10" s="1">
-        <v>5787.0275</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101380.3444</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0585</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.0207</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6031.6188</v>
       </c>
       <c r="F11" s="1">
         <v>289.2345</v>
       </c>
       <c r="G11" s="1">
-        <v>6320.8533</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>102129.7822</v>
       </c>
       <c r="I11" s="1">
-        <v>89627.0126</v>
+        <v>5265.2124</v>
       </c>
       <c r="J11" s="1">
-        <v>14.1796</v>
+        <v>107394.9946</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>79657.76149999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.2067</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4922.9739</v>
       </c>
-      <c r="O11" s="1">
-        <v>10864.0536</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117891.2703</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0585</v>
+        <v>0.0645</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.4608</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6320.8533</v>
       </c>
       <c r="F12" s="1">
         <v>508.8104</v>
       </c>
       <c r="G12" s="1">
-        <v>6829.6637</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>109794.4863</v>
       </c>
       <c r="I12" s="1">
-        <v>98511.24950000001</v>
+        <v>10342.2385</v>
       </c>
       <c r="J12" s="1">
-        <v>14.424</v>
+        <v>120136.7248</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>88541.9984</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.0079</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8884.2369</v>
       </c>
-      <c r="O12" s="1">
-        <v>11979.8167</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130612.4417</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0213</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.886</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6829.6637</v>
       </c>
       <c r="F13" s="1">
         <v>933.6553</v>
       </c>
       <c r="G13" s="1">
-        <v>7763.319</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>114728.1062</v>
       </c>
       <c r="I13" s="1">
-        <v>114276.9525</v>
+        <v>11458.0016</v>
       </c>
       <c r="J13" s="1">
-        <v>14.7201</v>
+        <v>126186.1078</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104307.7013</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.2727</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-15765.703</v>
       </c>
-      <c r="O13" s="1">
-        <v>6214.1138</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136626.2281</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0283</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.59</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7763.319</v>
       </c>
       <c r="F14" s="1">
         <v>-7763.319</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>135848.7666</v>
       </c>
       <c r="I14" s="1">
-        <v>114276.9525</v>
+        <v>5692.2987</v>
       </c>
       <c r="J14" s="1">
-        <v>14.7201</v>
+        <v>141541.0653</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104307.7013</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.436</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>135848.7666</v>
       </c>
-      <c r="O14" s="1">
-        <v>142062.8804</v>
-      </c>
-      <c r="P14" s="1">
-        <v>142062.8804</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0311</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.5426</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.7831</v>
+        <v>13.5507</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6297</v>
+        <v>13.231</v>
       </c>
       <c r="E3" s="1">
-        <v>14.6577</v>
+        <v>13.2985</v>
       </c>
       <c r="F3" s="1">
-        <v>14.6893</v>
+        <v>13.3664</v>
       </c>
       <c r="G3" s="1">
-        <v>14.7201</v>
+        <v>13.436</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2601</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1695</v>
+        <v>0.244</v>
       </c>
       <c r="D4" s="3">
-        <v>0.155</v>
+        <v>0.2294</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1582</v>
+        <v>0.2328</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1612</v>
+        <v>0.2362</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1644</v>
+        <v>0.2394</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.148</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1311</v>
+        <v>0.1481</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1278</v>
+        <v>0.1419</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1285</v>
+        <v>0.143</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1292</v>
+        <v>0.1441</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1298</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.6199</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1377</v>
+        <v>1.51</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0536</v>
+        <v>1.4732</v>
       </c>
       <c r="E6" s="4">
-        <v>1.0729</v>
+        <v>1.4859</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0907</v>
+        <v>1.4977</v>
       </c>
       <c r="G6" s="4">
-        <v>1.1101</v>
+        <v>1.508</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3669</v>
+        <v>0.1846</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3733</v>
+        <v>0.3618</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3734</v>
+        <v>0.3622</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3734</v>
+        <v>0.3626</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3736</v>
+        <v>0.3628</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>491.0662</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>491.0662</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>491.0662</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>491.0662</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>491.0662</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
